--- a/src/main/resources/static/excelFile/排产导入模板.xlsx
+++ b/src/main/resources/static/excelFile/排产导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLEE2\GIT\HY-MES\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B92B99-3988-4816-B385-F95A2F251564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66BFE5-FA48-4E0F-8E24-CF9D479D8C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="370" windowWidth="17410" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>组合*</t>
   </si>
@@ -31,12 +31,6 @@
     <t>组长*</t>
   </si>
   <si>
-    <t>日期*</t>
-  </si>
-  <si>
-    <t>班次*</t>
-  </si>
-  <si>
     <t>工单号*</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t/>
   </si>
   <si>
-    <t>白班</t>
-  </si>
-  <si>
     <t>ZA2020078860</t>
   </si>
   <si>
@@ -62,24 +53,13 @@
   </si>
   <si>
     <t>MF993.电池盖组件[080401307548].黑色.ZA组装.环保.(成品)</t>
-  </si>
-  <si>
-    <t>部门*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装二部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -106,19 +86,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -166,15 +133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,23 +410,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="7" customWidth="1"/>
-    <col min="4" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="80" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,60 +438,37 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44125</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"白班,晚班"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/static/excelFile/排产导入模板.xlsx
+++ b/src/main/resources/static/excelFile/排产导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLEE2\GIT\HY-MES\huayu_mes\src\main\resources\static\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66BFE5-FA48-4E0F-8E24-CF9D479D8C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556C4C5-8878-4622-8D49-16A6CE892337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="370" windowWidth="17410" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="390" windowWidth="17565" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>组合*</t>
   </si>
   <si>
+    <t>组长*</t>
+  </si>
+  <si>
+    <t>工单号*</t>
+  </si>
+  <si>
+    <t>物料编码*</t>
+  </si>
+  <si>
+    <t>物料描述*</t>
+  </si>
+  <si>
+    <t>计划生产数量*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ZA2020078860</t>
+  </si>
+  <si>
+    <t>039207-05006-0001</t>
+  </si>
+  <si>
+    <t>MF993.电池盖组件[080401307548].黑色.ZA组装.环保.(成品)</t>
+  </si>
+  <si>
     <t>客户*</t>
-  </si>
-  <si>
-    <t>组长*</t>
-  </si>
-  <si>
-    <t>工单号*</t>
-  </si>
-  <si>
-    <t>物料编码*</t>
-  </si>
-  <si>
-    <t>物料描述*</t>
-  </si>
-  <si>
-    <t>计划生产数量*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ZA2020078860</t>
-  </si>
-  <si>
-    <t>039207-05006-0001</t>
-  </si>
-  <si>
-    <t>MF993.电池盖组件[080401307548].黑色.ZA组装.环保.(成品)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分段顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -410,65 +419,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="61.25" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{38D94FA9-8D23-45D0-A7E8-BA025EC3DCC0}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/static/excelFile/排产导入模板.xlsx
+++ b/src/main/resources/static/excelFile/排产导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556C4C5-8878-4622-8D49-16A6CE892337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133811C3-4070-40D9-AF5E-67C11F848FC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="390" windowWidth="17565" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,8 +491,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{38D94FA9-8D23-45D0-A7E8-BA025EC3DCC0}">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A9637F2B-A59A-44EB-8875-B40921CE0460}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
